--- a/medicine/Enfance/He_Zhihong/He_Zhihong.xlsx
+++ b/medicine/Enfance/He_Zhihong/He_Zhihong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">He Zhihong est une auteure et illustratrice de livres pour la jeunesse.
 Née en Chine, elle dessine et calligraphie dès l'enfance en observant son père peindre. Diplômée des Beaux-Arts de Pékin, où elle a étudié la peinture traditionnelle chinoise, He Zhihong travaille sur soie et sur papier de riz. Elle a également conçu une méthode multimédia d’apprentissage de la calligraphie chinoise en livre-cédérom.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La nuit de Pinpin, Seuil Jeunesse, 2019
 Les animaux du zodiaque, Les éditions des éléphants, 2019
@@ -529,13 +543,13 @@
 Contes de Chine : L'origine des grandes fêtes, Seuil Jeunesse, 2014
 Que fais-tu bébé ?, Seuil Jeunesse, 2014
 Voilà le loup, Flammarion, 2013
-Nian le terrible, Seuil Jeunesse, 2012[1]
+Nian le terrible, Seuil Jeunesse, 2012
 Mes images de Chine, Seuil Jeunesse, 2011
 La Grande Muraille de Chine, Casterman, 2009
 Poèmes de Chine, Seuil, 2009
 La fille du pays des neiges, Seuil Jeunesse, 2007
 Pourquoi le tigre ne grimpe pas aux arbres, Seuil Jeunesse, 2007
-J’apprends la calligraphie chinoise, Picquier Jeunesse, 2006[2]
+J’apprends la calligraphie chinoise, Picquier Jeunesse, 2006
 Le cerf-volant dans l’arbre, Picquier Jeunesse, 2006
 La forêt des pandas, Seuil Jeunesse, 2006 (Prix Saint-Exupéry)
 Long-long’s New Year, Frances Lincoln, 2005 (Prix Peter Pan)
